--- a/小镇地图（逻辑图）.xlsx
+++ b/小镇地图（逻辑图）.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>单查尔小镇地图（逻辑图）</t>
   </si>
   <si>
-    <t>建筑物之间标识所需行动力。求得最短路径：若有建筑物遮挡，请自行规划路线（使用最短寻径算法）,若中间无建筑物遮挡，可以考虑使用三角函数计算得出的所需行动力</t>
-  </si>
-  <si>
     <t>北↑</t>
   </si>
   <si>
@@ -37,13 +34,34 @@
     <t>车站</t>
   </si>
   <si>
+    <t>地质勘探所</t>
+  </si>
+  <si>
+    <t>镇医院</t>
+  </si>
+  <si>
+    <t>公墓</t>
+  </si>
+  <si>
     <t>旅馆街</t>
   </si>
   <si>
-    <t>县医院</t>
-  </si>
-  <si>
-    <t>杂货铺</t>
+    <t>中心广场（行政机构）</t>
+  </si>
+  <si>
+    <t>居民区</t>
+  </si>
+  <si>
+    <t>商店街</t>
+  </si>
+  <si>
+    <t>无名者联络站</t>
+  </si>
+  <si>
+    <t>职工宿舍</t>
+  </si>
+  <si>
+    <t>矿坑</t>
   </si>
 </sst>
 </file>
@@ -52,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,8 +90,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,21 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,9 +144,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,21 +160,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,17 +167,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,40 +181,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +236,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,25 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,139 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,11 +430,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,6 +465,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,17 +496,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,32 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,16 +547,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,115 +565,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,72 +1000,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88073394495413" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>2</v>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>9</v>
+    <row r="13" spans="7:7">
+      <c r="G13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
